--- a/output.xlsx
+++ b/output.xlsx
@@ -576,7 +576,7 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -661,7 +661,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -971,7 +971,7 @@
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:1">
@@ -1506,7 +1506,7 @@
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:1">
@@ -1811,7 +1811,7 @@
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:1">
@@ -1856,12 +1856,12 @@
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:1">
@@ -2201,7 +2201,7 @@
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:1">
@@ -2331,7 +2331,7 @@
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:1">
@@ -2501,7 +2501,7 @@
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:1">
@@ -3256,12 +3256,12 @@
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:1">
@@ -3336,7 +3336,7 @@
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:1">
@@ -3841,7 +3841,7 @@
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:1">
@@ -3966,7 +3966,7 @@
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="724" spans="1:1">
@@ -3981,7 +3981,7 @@
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:1">
@@ -4511,7 +4511,7 @@
     </row>
     <row r="832" spans="1:1">
       <c r="A832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:1">
@@ -4631,7 +4631,7 @@
     </row>
     <row r="856" spans="1:1">
       <c r="A856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:1">
@@ -4676,7 +4676,7 @@
     </row>
     <row r="865" spans="1:1">
       <c r="A865">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="866" spans="1:1">
@@ -4781,7 +4781,7 @@
     </row>
     <row r="886" spans="1:1">
       <c r="A886">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:1">
@@ -4891,7 +4891,7 @@
     </row>
     <row r="908" spans="1:1">
       <c r="A908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:1">
@@ -5061,7 +5061,7 @@
     </row>
     <row r="942" spans="1:1">
       <c r="A942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:1">
@@ -5106,7 +5106,7 @@
     </row>
     <row r="951" spans="1:1">
       <c r="A951">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:1">
@@ -5391,7 +5391,7 @@
     </row>
     <row r="1008" spans="1:1">
       <c r="A1008">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1009" spans="1:1">
@@ -5666,7 +5666,7 @@
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
@@ -6156,7 +6156,7 @@
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1162" spans="1:1">
@@ -6221,12 +6221,12 @@
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:1">
@@ -6686,7 +6686,7 @@
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1268" spans="1:1">
@@ -6881,7 +6881,7 @@
     </row>
     <row r="1306" spans="1:1">
       <c r="A1306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1307" spans="1:1">
@@ -6926,7 +6926,7 @@
     </row>
     <row r="1315" spans="1:1">
       <c r="A1315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1316" spans="1:1">
@@ -7011,7 +7011,7 @@
     </row>
     <row r="1332" spans="1:1">
       <c r="A1332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333" spans="1:1">
@@ -7146,7 +7146,7 @@
     </row>
     <row r="1359" spans="1:1">
       <c r="A1359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1360" spans="1:1">
@@ -7636,7 +7636,7 @@
     </row>
     <row r="1457" spans="1:1">
       <c r="A1457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1458" spans="1:1">
@@ -7696,7 +7696,7 @@
     </row>
     <row r="1469" spans="1:1">
       <c r="A1469">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1470" spans="1:1">
@@ -8421,7 +8421,7 @@
     </row>
     <row r="1614" spans="1:1">
       <c r="A1614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1615" spans="1:1">
@@ -8536,7 +8536,7 @@
     </row>
     <row r="1637" spans="1:1">
       <c r="A1637">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1638" spans="1:1">
@@ -8721,7 +8721,7 @@
     </row>
     <row r="1674" spans="1:1">
       <c r="A1674">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1675" spans="1:1">
@@ -9101,7 +9101,7 @@
     </row>
     <row r="1750" spans="1:1">
       <c r="A1750">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1751" spans="1:1">
@@ -9181,7 +9181,7 @@
     </row>
     <row r="1766" spans="1:1">
       <c r="A1766">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1767" spans="1:1">
@@ -9636,7 +9636,7 @@
     </row>
     <row r="1857" spans="1:1">
       <c r="A1857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1858" spans="1:1">
@@ -9716,12 +9716,12 @@
     </row>
     <row r="1873" spans="1:1">
       <c r="A1873">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1874" spans="1:1">
       <c r="A1874">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1875" spans="1:1">
@@ -9886,7 +9886,7 @@
     </row>
     <row r="1907" spans="1:1">
       <c r="A1907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1908" spans="1:1">
@@ -9916,7 +9916,7 @@
     </row>
     <row r="1913" spans="1:1">
       <c r="A1913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1914" spans="1:1">
@@ -10101,7 +10101,7 @@
     </row>
     <row r="1950" spans="1:1">
       <c r="A1950">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1951" spans="1:1">
@@ -10131,7 +10131,7 @@
     </row>
     <row r="1956" spans="1:1">
       <c r="A1956">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1957" spans="1:1">
@@ -10326,7 +10326,7 @@
     </row>
     <row r="1995" spans="1:1">
       <c r="A1995">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1996" spans="1:1">
@@ -10411,7 +10411,7 @@
     </row>
     <row r="2012" spans="1:1">
       <c r="A2012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2013" spans="1:1">
@@ -10521,7 +10521,7 @@
     </row>
     <row r="2034" spans="1:1">
       <c r="A2034">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2035" spans="1:1">
@@ -10561,7 +10561,7 @@
     </row>
     <row r="2042" spans="1:1">
       <c r="A2042">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2043" spans="1:1">
@@ -10691,7 +10691,7 @@
     </row>
     <row r="2068" spans="1:1">
       <c r="A2068">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2069" spans="1:1">
@@ -10771,7 +10771,7 @@
     </row>
     <row r="2084" spans="1:1">
       <c r="A2084">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2085" spans="1:1">
@@ -11291,7 +11291,7 @@
     </row>
     <row r="2188" spans="1:1">
       <c r="A2188">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2189" spans="1:1">
@@ -11636,7 +11636,7 @@
     </row>
     <row r="2257" spans="1:1">
       <c r="A2257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2258" spans="1:1">
@@ -12506,7 +12506,7 @@
     </row>
     <row r="2431" spans="1:1">
       <c r="A2431">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2432" spans="1:1">
@@ -12526,7 +12526,7 @@
     </row>
     <row r="2435" spans="1:1">
       <c r="A2435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2436" spans="1:1">
@@ -12581,7 +12581,7 @@
     </row>
     <row r="2446" spans="1:1">
       <c r="A2446">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2447" spans="1:1">
@@ -12716,7 +12716,7 @@
     </row>
     <row r="2473" spans="1:1">
       <c r="A2473">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2474" spans="1:1">
@@ -12851,7 +12851,7 @@
     </row>
     <row r="2500" spans="1:1">
       <c r="A2500">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2501" spans="1:1">
@@ -13101,7 +13101,7 @@
     </row>
     <row r="2550" spans="1:1">
       <c r="A2550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2551" spans="1:1">
@@ -13201,7 +13201,7 @@
     </row>
     <row r="2570" spans="1:1">
       <c r="A2570">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2571" spans="1:1">
@@ -13796,7 +13796,7 @@
     </row>
     <row r="2689" spans="1:1">
       <c r="A2689">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2690" spans="1:1">

--- a/output.xlsx
+++ b/output.xlsx
@@ -401,12 +401,12 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -606,7 +606,7 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -731,7 +731,7 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -901,7 +901,7 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -1051,7 +1051,7 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:1">
@@ -1071,7 +1071,7 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:1">
@@ -1146,7 +1146,7 @@
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:1">
@@ -1241,7 +1241,7 @@
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:1">
@@ -1256,7 +1256,7 @@
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:1">
@@ -1416,7 +1416,7 @@
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:1">
@@ -1481,7 +1481,7 @@
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:1">
@@ -1776,7 +1776,7 @@
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:1">
@@ -1811,7 +1811,7 @@
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:1">
@@ -1861,7 +1861,7 @@
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:1">
@@ -2081,7 +2081,7 @@
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:1">
@@ -2201,7 +2201,7 @@
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:1">
@@ -2296,7 +2296,7 @@
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:1">
@@ -2531,7 +2531,7 @@
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:1">
@@ -2771,7 +2771,7 @@
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:1">
@@ -2851,7 +2851,7 @@
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="501" spans="1:1">
@@ -2941,7 +2941,7 @@
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519" spans="1:1">
@@ -3071,7 +3071,7 @@
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:1">
@@ -3256,7 +3256,7 @@
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582" spans="1:1">
@@ -3336,12 +3336,12 @@
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:1">
@@ -3451,7 +3451,7 @@
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:1">
@@ -3586,7 +3586,7 @@
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:1">
@@ -3621,7 +3621,7 @@
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:1">
@@ -3686,7 +3686,7 @@
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:1">
@@ -3966,7 +3966,7 @@
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="724" spans="1:1">
@@ -4166,7 +4166,7 @@
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:1">
@@ -4286,7 +4286,7 @@
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:1">
@@ -4316,7 +4316,7 @@
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="794" spans="1:1">
@@ -4466,7 +4466,7 @@
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:1">
@@ -4526,7 +4526,7 @@
     </row>
     <row r="835" spans="1:1">
       <c r="A835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:1">
@@ -4631,7 +4631,7 @@
     </row>
     <row r="856" spans="1:1">
       <c r="A856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:1">
@@ -4891,7 +4891,7 @@
     </row>
     <row r="908" spans="1:1">
       <c r="A908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:1">
@@ -5116,7 +5116,7 @@
     </row>
     <row r="953" spans="1:1">
       <c r="A953">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="954" spans="1:1">
@@ -5231,7 +5231,7 @@
     </row>
     <row r="976" spans="1:1">
       <c r="A976">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:1">
@@ -5251,7 +5251,7 @@
     </row>
     <row r="980" spans="1:1">
       <c r="A980">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="981" spans="1:1">
@@ -5446,7 +5446,7 @@
     </row>
     <row r="1019" spans="1:1">
       <c r="A1019">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
@@ -5641,7 +5641,7 @@
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
@@ -5671,7 +5671,7 @@
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1065" spans="1:1">
@@ -5896,7 +5896,7 @@
     </row>
     <row r="1109" spans="1:1">
       <c r="A1109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:1">
@@ -5961,7 +5961,7 @@
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
@@ -5986,7 +5986,7 @@
     </row>
     <row r="1127" spans="1:1">
       <c r="A1127">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1128" spans="1:1">
@@ -6141,7 +6141,7 @@
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
@@ -6156,7 +6156,7 @@
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:1">
@@ -6221,7 +6221,7 @@
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
@@ -6321,7 +6321,7 @@
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
@@ -6426,7 +6426,7 @@
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:1">
@@ -6566,7 +6566,7 @@
     </row>
     <row r="1243" spans="1:1">
       <c r="A1243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1244" spans="1:1">
@@ -6716,7 +6716,7 @@
     </row>
     <row r="1273" spans="1:1">
       <c r="A1273">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1274" spans="1:1">
@@ -6796,7 +6796,7 @@
     </row>
     <row r="1289" spans="1:1">
       <c r="A1289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290" spans="1:1">
@@ -6806,7 +6806,7 @@
     </row>
     <row r="1291" spans="1:1">
       <c r="A1291">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292" spans="1:1">
@@ -6926,7 +6926,7 @@
     </row>
     <row r="1315" spans="1:1">
       <c r="A1315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316" spans="1:1">
@@ -6971,7 +6971,7 @@
     </row>
     <row r="1324" spans="1:1">
       <c r="A1324">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1325" spans="1:1">
@@ -7011,7 +7011,7 @@
     </row>
     <row r="1332" spans="1:1">
       <c r="A1332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333" spans="1:1">
@@ -7146,7 +7146,7 @@
     </row>
     <row r="1359" spans="1:1">
       <c r="A1359">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1360" spans="1:1">
@@ -7216,7 +7216,7 @@
     </row>
     <row r="1373" spans="1:1">
       <c r="A1373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1374" spans="1:1">
@@ -7236,7 +7236,7 @@
     </row>
     <row r="1377" spans="1:1">
       <c r="A1377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1378" spans="1:1">
@@ -7281,7 +7281,7 @@
     </row>
     <row r="1386" spans="1:1">
       <c r="A1386">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1387" spans="1:1">
@@ -7416,7 +7416,7 @@
     </row>
     <row r="1413" spans="1:1">
       <c r="A1413">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1414" spans="1:1">
@@ -7826,7 +7826,7 @@
     </row>
     <row r="1495" spans="1:1">
       <c r="A1495">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1496" spans="1:1">
@@ -7891,7 +7891,7 @@
     </row>
     <row r="1508" spans="1:1">
       <c r="A1508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1509" spans="1:1">
@@ -7951,7 +7951,7 @@
     </row>
     <row r="1520" spans="1:1">
       <c r="A1520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1521" spans="1:1">
@@ -8051,7 +8051,7 @@
     </row>
     <row r="1540" spans="1:1">
       <c r="A1540">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1541" spans="1:1">
@@ -8176,7 +8176,7 @@
     </row>
     <row r="1565" spans="1:1">
       <c r="A1565">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1566" spans="1:1">
@@ -8366,7 +8366,7 @@
     </row>
     <row r="1603" spans="1:1">
       <c r="A1603">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1604" spans="1:1">
@@ -8491,7 +8491,7 @@
     </row>
     <row r="1628" spans="1:1">
       <c r="A1628">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1629" spans="1:1">
@@ -8536,7 +8536,7 @@
     </row>
     <row r="1637" spans="1:1">
       <c r="A1637">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1638" spans="1:1">
@@ -8606,7 +8606,7 @@
     </row>
     <row r="1651" spans="1:1">
       <c r="A1651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1652" spans="1:1">
@@ -8636,7 +8636,7 @@
     </row>
     <row r="1657" spans="1:1">
       <c r="A1657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1658" spans="1:1">
@@ -8691,7 +8691,7 @@
     </row>
     <row r="1668" spans="1:1">
       <c r="A1668">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1669" spans="1:1">
@@ -8721,7 +8721,7 @@
     </row>
     <row r="1674" spans="1:1">
       <c r="A1674">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1675" spans="1:1">
@@ -8756,7 +8756,7 @@
     </row>
     <row r="1681" spans="1:1">
       <c r="A1681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1682" spans="1:1">
@@ -8806,7 +8806,7 @@
     </row>
     <row r="1691" spans="1:1">
       <c r="A1691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1692" spans="1:1">
@@ -9006,7 +9006,7 @@
     </row>
     <row r="1731" spans="1:1">
       <c r="A1731">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1732" spans="1:1">
@@ -9101,7 +9101,7 @@
     </row>
     <row r="1750" spans="1:1">
       <c r="A1750">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1751" spans="1:1">
@@ -9236,7 +9236,7 @@
     </row>
     <row r="1777" spans="1:1">
       <c r="A1777">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1778" spans="1:1">
@@ -9316,7 +9316,7 @@
     </row>
     <row r="1793" spans="1:1">
       <c r="A1793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1794" spans="1:1">
@@ -9501,7 +9501,7 @@
     </row>
     <row r="1830" spans="1:1">
       <c r="A1830">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1831" spans="1:1">
@@ -9636,7 +9636,7 @@
     </row>
     <row r="1857" spans="1:1">
       <c r="A1857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1858" spans="1:1">
@@ -9706,7 +9706,7 @@
     </row>
     <row r="1871" spans="1:1">
       <c r="A1871">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1872" spans="1:1">
@@ -9766,7 +9766,7 @@
     </row>
     <row r="1883" spans="1:1">
       <c r="A1883">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1884" spans="1:1">
@@ -9796,7 +9796,7 @@
     </row>
     <row r="1889" spans="1:1">
       <c r="A1889">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1890" spans="1:1">
@@ -9876,7 +9876,7 @@
     </row>
     <row r="1905" spans="1:1">
       <c r="A1905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1906" spans="1:1">
@@ -9901,7 +9901,7 @@
     </row>
     <row r="1910" spans="1:1">
       <c r="A1910">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1911" spans="1:1">
@@ -9916,7 +9916,7 @@
     </row>
     <row r="1913" spans="1:1">
       <c r="A1913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1914" spans="1:1">
@@ -10031,7 +10031,7 @@
     </row>
     <row r="1936" spans="1:1">
       <c r="A1936">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1937" spans="1:1">
@@ -10041,7 +10041,7 @@
     </row>
     <row r="1938" spans="1:1">
       <c r="A1938">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1939" spans="1:1">
@@ -10086,7 +10086,7 @@
     </row>
     <row r="1947" spans="1:1">
       <c r="A1947">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1948" spans="1:1">
@@ -10101,12 +10101,12 @@
     </row>
     <row r="1950" spans="1:1">
       <c r="A1950">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1951" spans="1:1">
       <c r="A1951">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1952" spans="1:1">
@@ -10291,7 +10291,7 @@
     </row>
     <row r="1988" spans="1:1">
       <c r="A1988">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1989" spans="1:1">
@@ -10411,7 +10411,7 @@
     </row>
     <row r="2012" spans="1:1">
       <c r="A2012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2013" spans="1:1">
@@ -10466,7 +10466,7 @@
     </row>
     <row r="2023" spans="1:1">
       <c r="A2023">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2024" spans="1:1">
@@ -10671,7 +10671,7 @@
     </row>
     <row r="2064" spans="1:1">
       <c r="A2064">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2065" spans="1:1">
@@ -10691,7 +10691,7 @@
     </row>
     <row r="2068" spans="1:1">
       <c r="A2068">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2069" spans="1:1">
@@ -10771,7 +10771,7 @@
     </row>
     <row r="2084" spans="1:1">
       <c r="A2084">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2085" spans="1:1">
@@ -10866,7 +10866,7 @@
     </row>
     <row r="2103" spans="1:1">
       <c r="A2103">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2104" spans="1:1">
@@ -10951,7 +10951,7 @@
     </row>
     <row r="2120" spans="1:1">
       <c r="A2120">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2121" spans="1:1">
@@ -11041,7 +11041,7 @@
     </row>
     <row r="2138" spans="1:1">
       <c r="A2138">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2139" spans="1:1">
@@ -11236,7 +11236,7 @@
     </row>
     <row r="2177" spans="1:1">
       <c r="A2177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2178" spans="1:1">
@@ -11321,7 +11321,7 @@
     </row>
     <row r="2194" spans="1:1">
       <c r="A2194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2195" spans="1:1">
@@ -11386,7 +11386,7 @@
     </row>
     <row r="2207" spans="1:1">
       <c r="A2207">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2208" spans="1:1">
@@ -11406,7 +11406,7 @@
     </row>
     <row r="2211" spans="1:1">
       <c r="A2211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2212" spans="1:1">
@@ -11461,7 +11461,7 @@
     </row>
     <row r="2222" spans="1:1">
       <c r="A2222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2223" spans="1:1">
@@ -11486,7 +11486,7 @@
     </row>
     <row r="2227" spans="1:1">
       <c r="A2227">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2228" spans="1:1">
@@ -11876,7 +11876,7 @@
     </row>
     <row r="2305" spans="1:1">
       <c r="A2305">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2306" spans="1:1">
@@ -11911,7 +11911,7 @@
     </row>
     <row r="2312" spans="1:1">
       <c r="A2312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2313" spans="1:1">
@@ -12071,7 +12071,7 @@
     </row>
     <row r="2344" spans="1:1">
       <c r="A2344">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2345" spans="1:1">
@@ -12171,7 +12171,7 @@
     </row>
     <row r="2364" spans="1:1">
       <c r="A2364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2365" spans="1:1">
@@ -12336,7 +12336,7 @@
     </row>
     <row r="2397" spans="1:1">
       <c r="A2397">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2398" spans="1:1">
@@ -12516,7 +12516,7 @@
     </row>
     <row r="2433" spans="1:1">
       <c r="A2433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2434" spans="1:1">
@@ -12691,7 +12691,7 @@
     </row>
     <row r="2468" spans="1:1">
       <c r="A2468">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2469" spans="1:1">
@@ -12886,7 +12886,7 @@
     </row>
     <row r="2507" spans="1:1">
       <c r="A2507">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2508" spans="1:1">
@@ -13051,7 +13051,7 @@
     </row>
     <row r="2540" spans="1:1">
       <c r="A2540">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2541" spans="1:1">
@@ -13086,7 +13086,7 @@
     </row>
     <row r="2547" spans="1:1">
       <c r="A2547">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2548" spans="1:1">
@@ -13126,7 +13126,7 @@
     </row>
     <row r="2555" spans="1:1">
       <c r="A2555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2556" spans="1:1">
@@ -13201,7 +13201,7 @@
     </row>
     <row r="2570" spans="1:1">
       <c r="A2570">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2571" spans="1:1">
@@ -13336,7 +13336,7 @@
     </row>
     <row r="2597" spans="1:1">
       <c r="A2597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2598" spans="1:1">
@@ -13356,7 +13356,7 @@
     </row>
     <row r="2601" spans="1:1">
       <c r="A2601">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2602" spans="1:1">
@@ -13396,7 +13396,7 @@
     </row>
     <row r="2609" spans="1:1">
       <c r="A2609">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2610" spans="1:1">
@@ -13541,7 +13541,7 @@
     </row>
     <row r="2638" spans="1:1">
       <c r="A2638">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2639" spans="1:1">
@@ -13966,7 +13966,7 @@
     </row>
     <row r="2723" spans="1:1">
       <c r="A2723">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2724" spans="1:1">
@@ -13986,7 +13986,7 @@
     </row>
     <row r="2727" spans="1:1">
       <c r="A2727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2728" spans="1:1">
@@ -14001,7 +14001,7 @@
     </row>
     <row r="2730" spans="1:1">
       <c r="A2730">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2731" spans="1:1">
